--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1239.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1239.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>3.946453872761296</v>
+        <v>1.20708179473877</v>
       </c>
       <c r="B1">
-        <v>2.255333808170755</v>
+        <v>-1</v>
       </c>
       <c r="C1">
-        <v>1.473897220833249</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.274566121657024</v>
+        <v>-1</v>
       </c>
       <c r="E1">
-        <v>1.246242935043057</v>
+        <v>1.203161120414734</v>
       </c>
     </row>
   </sheetData>
